--- a/example_data.xlsx
+++ b/example_data.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="47">
   <si>
     <t>Имя</t>
   </si>
@@ -31,13 +31,16 @@
     <t>Место</t>
   </si>
   <si>
+    <t>Выдаваемый документ</t>
+  </si>
+  <si>
     <t>Иван</t>
   </si>
   <si>
     <t>Гнученко</t>
   </si>
   <si>
-    <t>ivanko@gmail.com</t>
+    <t>tyfongame@gmail.com</t>
   </si>
   <si>
     <t>Ru</t>
@@ -49,27 +52,27 @@
     <t>-</t>
   </si>
   <si>
+    <t>Благодарственное письмо</t>
+  </si>
+  <si>
     <t>Георгий</t>
   </si>
   <si>
     <t>Тетеков</t>
   </si>
   <si>
-    <t>georgy@mail.ru</t>
-  </si>
-  <si>
     <t>Победитель</t>
   </si>
   <si>
+    <t>Диплом</t>
+  </si>
+  <si>
     <t>Александр</t>
   </si>
   <si>
     <t>Иванов</t>
   </si>
   <si>
-    <t>ivanov.alex@mail.com</t>
-  </si>
-  <si>
     <t>En</t>
   </si>
   <si>
@@ -79,18 +82,12 @@
     <t>Петрова</t>
   </si>
   <si>
-    <t>petrova.m@inbox.com</t>
-  </si>
-  <si>
     <t>Дмитрий</t>
   </si>
   <si>
     <t>Сидоров</t>
   </si>
   <si>
-    <t>sidorov.dmitry@gmail.com</t>
-  </si>
-  <si>
     <t>Призёр</t>
   </si>
   <si>
@@ -100,28 +97,25 @@
     <t>Козлова</t>
   </si>
   <si>
-    <t>kozlova.anna@ya.ru</t>
-  </si>
-  <si>
     <t>Алексей</t>
   </si>
   <si>
     <t>Новиков</t>
   </si>
   <si>
-    <t>novikov.alexey@mail.com</t>
-  </si>
-  <si>
     <t>Участник</t>
   </si>
   <si>
+    <t>Сертификат</t>
+  </si>
+  <si>
     <t>Елена</t>
   </si>
   <si>
     <t>Васильева</t>
   </si>
   <si>
-    <t>vasilieva.elena@inbox.com</t>
+    <t>aabzhinova@ya.ru</t>
   </si>
   <si>
     <t>Игорь</t>
@@ -130,59 +124,41 @@
     <t>Фёдоров</t>
   </si>
   <si>
-    <t>fedorov.igor@gmail.com</t>
-  </si>
-  <si>
     <t>Ольга</t>
   </si>
   <si>
     <t>Смирнова</t>
   </si>
   <si>
-    <t>smirnova.olga@ya.ru</t>
-  </si>
-  <si>
     <t>Михаил</t>
   </si>
   <si>
     <t>Попов</t>
   </si>
   <si>
-    <t>popov.misha@mail.com</t>
-  </si>
-  <si>
     <t>Виктория</t>
   </si>
   <si>
     <t>Лебедева</t>
   </si>
   <si>
-    <t>lebedeva.vika@inbox.com</t>
-  </si>
-  <si>
     <t>Павел</t>
   </si>
   <si>
     <t>Соколов</t>
   </si>
   <si>
-    <t>sokolov.pavel@gmail.com</t>
-  </si>
-  <si>
     <t>Дарья</t>
   </si>
   <si>
     <t>Морозова</t>
-  </si>
-  <si>
-    <t>morozova.dasha@ya.ru</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -191,7 +167,7 @@
     </font>
     <font>
       <b/>
-      <sz val="13.0"/>
+      <sz val="12.0"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
@@ -200,6 +176,11 @@
       <sz val="12.0"/>
       <color rgb="FF0F1115"/>
       <name val="Quote-cjk-patch"/>
+    </font>
+    <font>
+      <sz val="12.0"/>
+      <color rgb="FF0F1115"/>
+      <name val="Arial"/>
     </font>
     <font>
       <sz val="12.0"/>
@@ -228,13 +209,8 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border/>
-    <border>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -253,7 +229,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -263,7 +239,10 @@
     <xf borderId="1" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
   </cellXfs>
@@ -485,6 +464,7 @@
     <col customWidth="1" min="1" max="1" width="17.88"/>
     <col customWidth="1" min="2" max="2" width="17.25"/>
     <col customWidth="1" min="3" max="3" width="26.75"/>
+    <col customWidth="1" min="7" max="7" width="26.13"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -506,85 +486,100 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="C2" s="3" t="s">
         <v>9</v>
       </c>
+      <c r="D2" s="4" t="s">
+        <v>10</v>
+      </c>
       <c r="E2" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>9</v>
       </c>
+      <c r="D3" s="4" t="s">
+        <v>10</v>
+      </c>
       <c r="E3" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F3" s="2">
         <v>2.0</v>
       </c>
+      <c r="G3" s="4" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="3" t="s">
         <v>19</v>
       </c>
+      <c r="C4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>20</v>
+      </c>
       <c r="E4" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="C5" s="3" t="s">
         <v>9</v>
       </c>
+      <c r="D5" s="4" t="s">
+        <v>10</v>
+      </c>
       <c r="E5" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F5" s="2">
         <v>1.0</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="6">
@@ -594,197 +589,227 @@
       <c r="B6" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>26</v>
       </c>
       <c r="F6" s="2">
         <v>2.0</v>
       </c>
+      <c r="G6" s="4" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>19</v>
+      <c r="C7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>20</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F7" s="2">
         <v>3.0</v>
       </c>
+      <c r="G7" s="4" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>33</v>
       </c>
       <c r="F8" s="2">
         <v>4.0</v>
       </c>
+      <c r="G8" s="4" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>9</v>
+      <c r="D9" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F9" s="2">
         <v>5.0</v>
       </c>
+      <c r="G9" s="4" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>9</v>
+        <v>36</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F10" s="2">
         <v>6.0</v>
       </c>
+      <c r="G10" s="4" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>19</v>
+        <v>38</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>20</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F11" s="2">
         <v>7.0</v>
       </c>
+      <c r="G11" s="4" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>9</v>
+        <v>40</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F12" s="2">
         <v>8.0</v>
       </c>
+      <c r="G12" s="4" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>9</v>
+        <v>42</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F13" s="2">
         <v>9.0</v>
       </c>
+      <c r="G13" s="4" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>19</v>
+        <v>44</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>20</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F14" s="2">
         <v>10.0</v>
       </c>
+      <c r="G14" s="4" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>9</v>
+        <v>46</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F15" s="2">
         <v>11.0</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
